--- a/examples/sources/data/unsolved/to_schedule/2019-03-08.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-03-08.xlsx
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -3344,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" s="2">
         <v>43532</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -4045,7 +4045,7 @@
         <v>1</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74" s="2">
         <v>43532</v>
@@ -4127,7 +4127,7 @@
         <v>1</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O76" s="2">
         <v>43532</v>
@@ -4250,7 +4250,7 @@
         <v>1</v>
       </c>
       <c r="N79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79" s="2">
         <v>43532</v>
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -4537,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O86" s="2">
         <v>43532</v>
@@ -6036,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N120">
         <v>1</v>
@@ -6212,7 +6212,7 @@
         <v>1</v>
       </c>
       <c r="N124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O124" s="2">
         <v>43532</v>
@@ -6467,7 +6467,7 @@
         <v>1</v>
       </c>
       <c r="N130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O130" s="2">
         <v>43532</v>
